--- a/[C0]绩效评价/week11分工 2020-12-13.xlsx
+++ b/[C0]绩效评价/week11分工 2020-12-13.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\Baozi-SEProject\[C0]绩效评价\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A740A0A7-7CC9-4395-8121-4E7EA1F9FCF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0034C73-C3CB-4E6B-9F8E-E3E831674DC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20934" windowHeight="10733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>小组成员</t>
   </si>
@@ -62,6 +62,63 @@
   </si>
   <si>
     <t>小组评分准则：个人得分 = 50*任务完成率+个人评分*10%+组员1评分*20%+组员2评分*20%（注：评分、总得分均为满分100）</t>
+  </si>
+  <si>
+    <t>第11周任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 文档版本历史更新、模块用户使用说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改精进ppt，整合文档</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 分解任务发布给成员，整合伪代码，整合组员工作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT制作修正、原型设计完善</t>
+  </si>
+  <si>
+    <t>Projec-甘特图修改更新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体设计、用户手册等文档修正补充</t>
+  </si>
+  <si>
+    <t>总分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 数据库设计表、模块用户使用说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git版本管理、会议记录整理与数据库设计文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪代码的整合与格式规范化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与评审并进行评审笔记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与评审并根据评审笔记调整修改内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下阶段文档模板与任务准备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚动更新 所负责的内容部分修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -84,38 +141,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(是否完成*完成质量)/n （若有未按时完成，是否完成值则-=0.3）</t>
+      <t>(是否完成*完成质量)/n （若有未按时完成，是否完成值则-=0.3  完成质量由组长评判）</t>
     </r>
-  </si>
-  <si>
-    <t>Git版本管理、会议记录整理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Projec-甘特图修改精进</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第11周任务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 文档版本历史更新、模块用户使用说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 数据库设计表与数据库设计文档、模块用户使用说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改精进ppt，整合文档</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 分解任务发布给成员，整合伪代码，整合组员工作</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -123,6 +150,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,8 +228,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -210,27 +238,48 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -509,7 +558,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -524,6 +573,7 @@
     <col min="8" max="8" width="13.109375" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -531,8 +581,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="9" t="s">
-        <v>17</v>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
@@ -548,68 +598,68 @@
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>44172</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="17" t="s">
-        <v>22</v>
+      <c r="E3" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="G3" s="16">
+        <v>1</v>
+      </c>
+      <c r="H3" s="16">
+        <v>1</v>
+      </c>
+      <c r="I3" s="16">
         <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
       </c>
+      <c r="K3" s="24">
+        <v>92</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>44173</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="18"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1</v>
-      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
       <c r="J4" t="s">
         <v>8</v>
       </c>
+      <c r="K4" s="24">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>44174</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="12" t="s">
-        <v>21</v>
+      <c r="E5" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="6">
@@ -624,67 +674,82 @@
       <c r="J5" t="s">
         <v>9</v>
       </c>
+      <c r="K5" s="25">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>44175</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="16" t="s">
-        <v>20</v>
+      <c r="E6" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="K6" s="7"/>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>44176</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
       <c r="J7" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="26">
+        <f>50*SUM(I3,I4,I5,I6,I8)/COUNT(I3,I4,I5,I6,I8,J7)+0.1*K5+0.2*K4+0.2*K3</f>
+        <v>94.433333333333337</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>44177</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="16" t="s">
-        <v>20</v>
+      <c r="E8" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>44178</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G10" s="6"/>
@@ -692,16 +757,16 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>44172</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="10" t="s">
-        <v>18</v>
+      <c r="E11" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
@@ -715,113 +780,126 @@
       <c r="J11" t="s">
         <v>7</v>
       </c>
+      <c r="K11" s="25">
+        <v>92</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>44173</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="16" t="s">
-        <v>16</v>
+      <c r="E12" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="16">
+        <v>1</v>
+      </c>
+      <c r="I12" s="16">
         <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>8</v>
       </c>
+      <c r="K12" s="24">
+        <v>89.5</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>44174</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0.9</v>
-      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
       <c r="J13" t="s">
         <v>9</v>
       </c>
+      <c r="K13" s="24">
+        <v>94</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>44175</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="K14" s="7"/>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>44176</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="14"/>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="8"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="26">
+        <f>50*SUM(I11,I12,I13,I14,I16)/COUNT(I11,I12,I13,I14,I16,J15)+0.1*K13+0.2*K12+0.2*K11</f>
+        <v>95.7</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>44177</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="16" t="s">
-        <v>20</v>
+      <c r="E16" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>44178</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G18" s="6"/>
@@ -829,16 +907,16 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="11">
+      <c r="C19" s="9">
         <v>44172</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="9" t="s">
-        <v>19</v>
+      <c r="E19" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="G19" s="6">
         <v>1</v>
@@ -852,159 +930,180 @@
       <c r="J19" t="s">
         <v>7</v>
       </c>
+      <c r="K19" s="25">
+        <v>88</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <v>44173</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="15">
-        <v>1</v>
-      </c>
-      <c r="H20" s="15">
-        <v>1</v>
-      </c>
-      <c r="I20" s="15">
-        <v>1</v>
+      <c r="E20" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
+      <c r="H20" s="16">
+        <v>1</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0.9</v>
       </c>
       <c r="J20" t="s">
         <v>8</v>
       </c>
+      <c r="K20" s="24">
+        <v>94</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="11">
+      <c r="C21" s="9">
         <v>44174</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="E21" s="19"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
       <c r="J21" t="s">
         <v>9</v>
       </c>
+      <c r="K21" s="24">
+        <v>92</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="11">
+      <c r="C22" s="9">
         <v>44175</v>
       </c>
       <c r="D22" s="3"/>
+      <c r="E22" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="K22" s="7"/>
+      <c r="G22" s="12">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1</v>
+      </c>
+      <c r="I22" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="11">
+      <c r="C23" s="9">
         <v>44176</v>
       </c>
       <c r="D23" s="3"/>
+      <c r="E23" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
       <c r="J23" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="8"/>
+      <c r="K23" s="26">
+        <f>50*SUM(I19,I20,I21,I22,I24)/COUNT(I19,I20,I21,I22,I24,J23)+0.1*K21+0.2*K20+0.2*K19</f>
+        <v>93.933333333333337</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="11">
+      <c r="C24" s="9">
         <v>44177</v>
       </c>
       <c r="D24" s="3"/>
+      <c r="E24" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="11">
+      <c r="C25" s="9">
         <v>44178</v>
       </c>
       <c r="D25" s="3"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+      <c r="A29" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="G6:G7"/>
+  <mergeCells count="27">
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="A27:J28"/>
     <mergeCell ref="I16:I17"/>
@@ -1013,13 +1112,11 @@
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I22:I23"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H24:H25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
